--- a/timeline-grid.xlsx
+++ b/timeline-grid.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\ideas5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47AB2CAB-0D67-4FE9-BCD6-2A0955984D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37D0433-AA52-4E9F-B84A-69F601C22ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="3" r:id="rId1"/>
     <sheet name="Timeline" sheetId="2" r:id="rId2"/>
     <sheet name="Thought" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>cost-market-place</t>
   </si>
@@ -108,6 +109,69 @@
   </si>
   <si>
     <t>parameter-inferring</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>authorisation</t>
+  </si>
+  <si>
+    <t>dynamic-shop</t>
+  </si>
+  <si>
+    <t>make-invoice</t>
+  </si>
+  <si>
+    <t>architecture(scaling-requirements)</t>
+  </si>
+  <si>
+    <t>collaborative-it</t>
+  </si>
+  <si>
+    <t>openpoke</t>
+  </si>
+  <si>
+    <t>data-shape-rendering</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Thread 1</t>
+  </si>
+  <si>
+    <t>Thread 2</t>
+  </si>
+  <si>
+    <t>Thread 3</t>
+  </si>
+  <si>
+    <t>Thread 4</t>
+  </si>
+  <si>
+    <t>Thread 5</t>
+  </si>
+  <si>
+    <t>Thread 6</t>
+  </si>
+  <si>
+    <t>io_uring_prep_accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">io_uring_get_sqe                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">io_uring_prep_readv(sqe, client_socket, &amp;req-&gt;iov[0], 1, 0);                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">io_uring_sqe_set_data(sqe, req);                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">io_uring_submit(&amp;ring);  </t>
   </si>
 </sst>
 </file>
@@ -459,30 +523,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B26CB6E-4838-49E3-9AD9-CD74AE1FF506}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +699,87 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3D7DEF-EF11-4D87-89E6-7DB746DB58DE}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
